--- a/2/3/Base 2018 = 100, variación anual 2018 a 2021 - Mensual.xlsx
+++ b/2/3/Base 2018 = 100, variación anual 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Serie</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,6 +1108,26 @@
         <v>8.199999999999999</v>
       </c>
     </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>4.5</v>
+      </c>
+      <c r="C32">
+        <v>3.6</v>
+      </c>
+      <c r="D32">
+        <v>5.9</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>6.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/3/Base 2018 = 100, variación anual 2018 a 2021 - Mensual.xlsx
+++ b/2/3/Base 2018 = 100, variación anual 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Serie</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1128,6 +1131,26 @@
         <v>6.7</v>
       </c>
     </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>4.8</v>
+      </c>
+      <c r="C33">
+        <v>3.8</v>
+      </c>
+      <c r="D33">
+        <v>5.9</v>
+      </c>
+      <c r="E33">
+        <v>3.5</v>
+      </c>
+      <c r="F33">
+        <v>6.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/3/Base 2018 = 100, variación anual 2018 a 2021 - Mensual.xlsx
+++ b/2/3/Base 2018 = 100, variación anual 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Serie</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1151,6 +1154,26 @@
         <v>6.3</v>
       </c>
     </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>5.3</v>
+      </c>
+      <c r="C34">
+        <v>4.4</v>
+      </c>
+      <c r="D34">
+        <v>6.4</v>
+      </c>
+      <c r="E34">
+        <v>4.1</v>
+      </c>
+      <c r="F34">
+        <v>4.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/3/Base 2018 = 100, variación anual 2018 a 2021 - Mensual.xlsx
+++ b/2/3/Base 2018 = 100, variación anual 2018 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Serie</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,6 +1177,26 @@
         <v>4.6</v>
       </c>
     </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>5.1</v>
+      </c>
+      <c r="D35">
+        <v>6.9</v>
+      </c>
+      <c r="E35">
+        <v>4.9</v>
+      </c>
+      <c r="F35">
+        <v>4.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
